--- a/biology/Botanique/Confit_de_fleurs/Confit_de_fleurs.xlsx
+++ b/biology/Botanique/Confit_de_fleurs/Confit_de_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les confits de fleurs sont le nom donné aux confitures, ou gelées de fleurs, quand ces derniers termes sont réservés aux fruits par la législation.
 Ils sont fabriqués de la même manière avec du sucre, du jus de citron et de la pectine.
